--- a/xavier200203/evidence.xlsx
+++ b/xavier200203/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13060" tabRatio="500"/>
+    <workbookView windowWidth="27900" windowHeight="13060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -92,19 +92,19 @@
     <t>isc721Fan</t>
   </si>
   <si>
-    <t>iaa1pzl8eqp4t7f8c3h6e43pdftcx2qvgn5dltr47z</t>
-  </si>
-  <si>
-    <t>stars18ajmlej8nkyl9qtwhrc6kynwr6tuuf7xmtsfxh</t>
-  </si>
-  <si>
-    <t>juno16qjh2fmj4usjw5xfxy4vylnphk6geeykxf262y</t>
-  </si>
-  <si>
-    <t>uptick1dzla4hhzwp7xz0qgcnq38c8rth58v7jdyg80xc</t>
-  </si>
-  <si>
-    <t>omniflix1dhd3svlp5rfms34x70w93ep2hglqd3h2rxf9v2</t>
+    <t>iaa1ghcwp60uzgylr3kukkppzq457j0tlqw7g3s69u</t>
+  </si>
+  <si>
+    <t>stars1ghcwp60uzgylr3kukkppzq457j0tlqw7f08kvu</t>
+  </si>
+  <si>
+    <t>juno1ghcwp60uzgylr3kukkppzq457j0tlqw7tpnsq3</t>
+  </si>
+  <si>
+    <t>uptick1s4ljp93yg5lpkxr26lwnadkszygj7nwnq7820k</t>
+  </si>
+  <si>
+    <t>omniflix1ghcwp60uzgylr3kukkppzq457j0tlqw7qdpjsn</t>
   </si>
   <si>
     <t>xavier117#2572</t>
@@ -169,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -202,24 +202,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -230,68 +223,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -307,7 +253,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,7 +261,83 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,28 +349,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -371,13 +371,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,43 +419,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,121 +545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,26 +565,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,9 +606,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,28 +624,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,137 +665,137 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1199,7 +1199,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="7"/>

--- a/xavier200203/evidence.xlsx
+++ b/xavier200203/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="13060" tabRatio="500"/>
+    <workbookView windowWidth="29820" windowHeight="13780" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
   <si>
     <t>TeamName</t>
   </si>
@@ -110,7 +110,7 @@
     <t>xavier117#2572</t>
   </si>
   <si>
-    <t>none</t>
+    <t>uptick</t>
   </si>
   <si>
     <t>TxHash</t>
@@ -119,34 +119,79 @@
     <t>ClassID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
+    <t>5AF7128C440B8F62004EAD37761B8CC394E5B5F9FAF145BA7775F6651852D0BB</t>
+  </si>
+  <si>
+    <t>isc721FanIRISId</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
+    <t>04E15DF221967F96FB9B02FC846B92613ABA783EE43D2C6220B6496F2DA4B9D9</t>
+  </si>
+  <si>
+    <t>isc721FanNFT1stId</t>
+  </si>
+  <si>
+    <t>94153EA4D62CA1136A2966D202A03FDBB476A74395012F45C14C69498BA2ACC5</t>
+  </si>
+  <si>
+    <t>isc721FanNFT2ndId</t>
+  </si>
+  <si>
+    <t>C08BCA3FEE42EBCBFD17265EFB7D3B827FE669125BE524892C7FD116BC565CBC</t>
+  </si>
+  <si>
+    <t>isc721FanNFT3rdId</t>
+  </si>
+  <si>
+    <t>8977DE05506E734E1BB2321DCE0202165A51899AF70B497354FC098B46A6B964</t>
+  </si>
+  <si>
+    <t>isc721FanNFT4thId</t>
   </si>
   <si>
     <t>ChainID</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
+    <t>ContractAddr</t>
+  </si>
+  <si>
+    <t>FC168FEA43D7A9148C9210B13DA323082E2D36FC566169956F0626C1B0C453CB</t>
+  </si>
+  <si>
+    <t>stars185kjvd89hrzususdj0dmtjhn8mn35ecc8wlavssgkkvg57ra92ssujltju</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>A6C1779D1F024A19DF792DDE9F09ED9B8A848E1CC16B663F1B9804CB882E1A76</t>
+  </si>
+  <si>
+    <t>ibc/80A6713E28F3A1E3C5B0D0D83188014A0978D340785DF5EF9542CD7502B1AB2E</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>0F593E9CBA551E60331D6688C5F4212DB0C439BDB861BA504E1F5EBCAFA5DF3D</t>
+  </si>
+  <si>
+    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/isc721FanIRISId</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>34E1D2F80590DFABB0BBE2D9DB59097846DE2DFBFD8BB391AD5F8E4D70F38BB3</t>
+  </si>
+  <si>
+    <t>ibc class on chain</t>
   </si>
   <si>
     <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
   </si>
   <si>
     <t>tx hash on that chain</t>
@@ -169,12 +214,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -194,10 +239,114 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="8.25"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8.25"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -205,150 +354,70 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -371,187 +440,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +631,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,6 +693,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,263 +731,216 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1198,8 +1279,8 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1241,25 +1322,25 @@
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
@@ -1323,10 +1404,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1360,10 +1441,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1397,10 +1478,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1434,10 +1515,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1466,25 +1547,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1513,25 +1594,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1560,25 +1641,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1607,25 +1688,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1654,25 +1735,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1701,25 +1782,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1735,7 +1816,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
@@ -1751,11 +1832,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:2">
+      <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1785,25 +1866,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1832,25 +1913,25 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1878,12 +1959,12 @@
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1914,12 +1995,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1950,12 +2031,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1986,12 +2067,12 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2007,16 +2088,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="1" max="1" width="58.4821428571429" customWidth="1"/>
+    <col min="2" max="2" width="42.4107142857143" customWidth="1"/>
+    <col min="3" max="3" width="20.8303571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:3">
@@ -2030,15 +2112,48 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:3">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" s="7" customFormat="1" spans="1:3">
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" s="7" customFormat="1" spans="1:3">
+      <c r="A4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2051,19 +2166,21 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="1" max="1" width="60.2589285714286" customWidth="1"/>
+    <col min="2" max="2" width="34.0714285714286" customWidth="1"/>
+    <col min="3" max="3" width="27.375" customWidth="1"/>
+    <col min="4" max="4" width="19.4910714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:4">
+    <row r="1" ht="13.2" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2074,21 +2191,27 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" s="7" customFormat="1" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2104,13 +2227,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="1" max="1" width="17.8839285714286" customWidth="1"/>
+    <col min="2" max="2" width="35.7053571428571" customWidth="1"/>
+    <col min="3" max="3" width="78.1160714285714" customWidth="1"/>
+    <col min="4" max="4" width="27.6696428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:4">
@@ -2124,21 +2249,21 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2154,13 +2279,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="1" max="1" width="42.5535714285714" customWidth="1"/>
+    <col min="2" max="2" width="89.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="28.4196428571429" customWidth="1"/>
+    <col min="4" max="4" width="23.8035714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:4">
@@ -2174,21 +2301,21 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:4">
-      <c r="A2" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
+      <c r="D2" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2203,15 +2330,15 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.8839285714286" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.2589285714286" customWidth="1"/>
+    <col min="2" max="2" width="21.4196428571429" customWidth="1"/>
+    <col min="3" max="3" width="20.9732142857143" customWidth="1"/>
     <col min="4" max="4" width="14.3839285714286" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2226,21 +2353,21 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2274,10 +2401,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2311,10 +2438,10 @@
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/xavier200203/evidence.xlsx
+++ b/xavier200203/evidence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="29820" windowHeight="13780" tabRatio="500" activeTab="6"/>
+    <workbookView windowWidth="27900" windowHeight="13060" tabRatio="836"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
   <si>
     <t>TeamName</t>
   </si>
@@ -65,30 +65,6 @@
     <t>Community</t>
   </si>
   <si>
-    <t>team name</t>
-  </si>
-  <si>
-    <t>addr1</t>
-  </si>
-  <si>
-    <t>addr2</t>
-  </si>
-  <si>
-    <t>addr3</t>
-  </si>
-  <si>
-    <t>addr4</t>
-  </si>
-  <si>
-    <t>addr5</t>
-  </si>
-  <si>
-    <t>discord#1234</t>
-  </si>
-  <si>
-    <t>set none if no community</t>
-  </si>
-  <si>
     <t>isc721Fan</t>
   </si>
   <si>
@@ -188,19 +164,169 @@
     <t>34E1D2F80590DFABB0BBE2D9DB59097846DE2DFBFD8BB391AD5F8E4D70F38BB3</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>ibc/EC788A8133345B3C39329AB8E809756FF26804D94C517E2E77BB0235C4F8323E</t>
+  </si>
+  <si>
+    <t>isc721FanIRISIdA7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>ibc/4A32884B637120566999805CDC357D86F4D66AEEB28773D84609E723CAC847DE</t>
+  </si>
+  <si>
+    <t>isc721FanIRISIdA8</t>
+  </si>
+  <si>
+    <t>ibc/A878ED5FD664423D73E743DB87B680E4F5AE18BF572FABC1E796B03E2FCF7A74</t>
+  </si>
+  <si>
+    <t>isc721FanIRISIdA9</t>
+  </si>
+  <si>
+    <t>ibc/0F411F8A2B351053BF3EB39B409DD2FF0D42932E50BDB0AE7B971CAD2380E233</t>
+  </si>
+  <si>
+    <t>isc721FanIRISIdA10</t>
+  </si>
+  <si>
+    <t>ibc/86318AED9C6D73EE8F6D373AA71750D4BEBAC27F77CE4D1FE15F0BB77913869B</t>
+  </si>
+  <si>
+    <t>isc721FanIRISIdA11</t>
+  </si>
+  <si>
+    <t>ibc/8B1FF02E4B33FF376CD6753E0AD1D1A9C2C561073BE4ABA914541A7BB4575B69</t>
+  </si>
+  <si>
+    <t>isc721FanIRISIdA12</t>
+  </si>
+  <si>
+    <t>200B905A4D80B1608CF6C1E59C8B61248E5C1BD8F45B492F2F2B24B6BD4F24E1</t>
+  </si>
+  <si>
+    <t>6AD044AF05D0337DE51F68444C997F5EED935763B7DB9E3C08537FF025F8BD19</t>
+  </si>
+  <si>
+    <t>C6C0AE86C0EB84DCB8501B7ABDF5620755DC8EA462E2BCDD2E934B4D099B3581</t>
+  </si>
+  <si>
+    <t>86928CA09291BC028924B256E12FCAEC1DBCA8D390BDAE47848BC5434E15C2CC</t>
+  </si>
+  <si>
+    <t>808E77E8A13D944C00601FDEAB23042A04D0B35B5697B08E001077465C1F6D29</t>
+  </si>
+  <si>
+    <t>49DDAF2E5D00EE08A2B7BB75C6EDB31B689BAFEE85ACCF752E5047A1B7BA1585</t>
+  </si>
+  <si>
+    <t>61DF5171184A04D3A47E631B70132040A58047A27B7E7568C563D16E596E2E28</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>C600CD1708549E5013248CD163883CF8BB2FD3B08FA778BBD18A071E2838C29F</t>
+  </si>
+  <si>
+    <t>2250CB541A53B567B9D2F23FFA20AA4F70BD430139FB1F74889505560BF60CB3</t>
+  </si>
+  <si>
+    <t>F290E6B6280A9E1E2E1604CCCD939422B80AB4A8A87806437AAD1108CDC42353</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>2E54CCE86C5D1EEF414FFBD9F38A6A5ED5409802E1888C29E1B085FB4EBF5F10</t>
+  </si>
+  <si>
+    <t>54EA0ABC27601E23BAF88C8A430F15F8706AC4171C44E427798DF7AEF05E1B6F</t>
+  </si>
+  <si>
+    <t>7D3CB66ABFF6A2E6C5A05ADC2E3E7FE9487C88BA0F35F75973C372CB692ACA86</t>
+  </si>
+  <si>
+    <t>713C58F254DDC4D4B11D266C7459AF99F56EB58A7425D578C51527A6363AB4A7</t>
+  </si>
+  <si>
+    <t>05653AB10CCDD342199458B140150ADD0C4028F684D964CDFDE1F69313E7FAD4</t>
+  </si>
+  <si>
+    <t>F1DAC0CDEF56B6FD6D80A29C45C3200577D3C9DAC9972DEED77E53BEE9EC5F25</t>
+  </si>
+  <si>
+    <t>1869635B2E12E7B7162ACF0AF498BF8832F7ECF2FF935366B572357B3B191C1C</t>
+  </si>
+  <si>
+    <t>4CFCC90D5471D8B430BFC0C4E1B21F31E9ADBE0A0012F733E7587BC57130CFE1</t>
+  </si>
+  <si>
+    <t>0876F9DE843CAF95219AF5725B871C9F30B4004E81779EF6A325F1F9F9FC58BC</t>
+  </si>
+  <si>
+    <t>FBAA67EE37F5727F7B917E4FAAD2D50137EB6EEDF4316DB617A2BD38358DE790</t>
+  </si>
+  <si>
+    <t>9D544499BD0870F84865A18E822A0D054EC5DB347F925BE5C381049CD1155E44</t>
+  </si>
+  <si>
+    <t>9D82EB050439A5E41EC7070775B0858DCA376744FC9B1DA98FD46C8FE685D2B9</t>
+  </si>
+  <si>
+    <t>A22065302E40E84533DA061584E5B40E0A1465FCC2FA93853516E845CB76CDFF</t>
+  </si>
+  <si>
+    <t>087CB33878D2C8D5C422042064C2DE3892BEB5761ECF42E864BB6F7FFE84134F</t>
+  </si>
+  <si>
+    <t>F95B3C2DD12EDCC02BF1E0752DCE0869F60420689282E9C71FF052082FDD9632</t>
+  </si>
+  <si>
+    <t>D885166976A5632BDCB8F31C13E0BA5A0D0D643E6AD8BFE87441EFA76876C29E</t>
+  </si>
+  <si>
+    <t>5AB33E4D912E930858EF88A3941A653E71CF9ECF0A6505094E1208E4DE30E148</t>
+  </si>
+  <si>
+    <t>1F0C00A4E2ABA6A7030E6DE7975BFADA0728C2D250A4FC4789F3451EBE1BFE07</t>
+  </si>
+  <si>
+    <t>167A2CCB5291BD4EDFE003B169E92F0A639497424B5A9715C2BDB2FC6950991E</t>
+  </si>
+  <si>
+    <t>9E356DB8B1F158D0DEA6009B55D553708624740366A5514D0216E9B5CBDAC1DB</t>
+  </si>
+  <si>
+    <t>3F967F13AA8A4389E6CFB989C9E63248E13624E8C6A088B07B09B0E41DFBCD24</t>
+  </si>
+  <si>
+    <t>4A9B6073E831C06ACF655892C402DAA3FD745BB66E91E01935F156E89D782A0A</t>
+  </si>
+  <si>
+    <t>77724585E2726FF828299D1864E6A2CFF5D3C43E11FEBDD777409B22617BB9C9</t>
+  </si>
+  <si>
+    <t>1004601FA19CF41AFB1F0D207230D8A52D11EECB1D1C8B5440F1881E4F8084BB</t>
+  </si>
+  <si>
+    <t>5FD16DF954409E6AC52D6B568911A9AECD93F037710C442155292A1D1F77DD36</t>
+  </si>
+  <si>
+    <t>1A624C4623639DAF65F2B0244C61D20DA85FFD7A158BF64936C65838ACF7ECBD</t>
+  </si>
+  <si>
+    <t>ED7DB5A41D88F58F927BE0F8156D33D03DB48209F540D95CFCC3F26CEA90ECB4</t>
+  </si>
+  <si>
+    <t>539EDA9DF8A420F883B12586FE572DBD9B10E547185D3BB05AFF03EDB7C8365E</t>
+  </si>
+  <si>
+    <t>BC062D1447EE67C127A02CADF7032CD4B6B8B1922B93DB6CA2CF1B73AFA16B91</t>
+  </si>
+  <si>
+    <t>171861F856A142F6F35F4E22FD963DE485CD51D8FEE81D0C0B3B37CA1A0C958A</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
@@ -214,12 +340,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -239,12 +365,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="8.25"/>
       <color rgb="FF000000"/>
       <name val="Menlo"/>
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF1A202C"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Menlo"/>
@@ -263,9 +418,143 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -273,151 +562,10 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -435,7 +583,61 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -446,7 +648,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,169 +708,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,54 +779,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -693,17 +793,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,216 +820,286 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1277,19 +1436,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.6160714285714" customWidth="1"/>
     <col min="2" max="2" width="14.8839285714286" customWidth="1"/>
     <col min="3" max="3" width="17.5089285714286" customWidth="1"/>
     <col min="4" max="4" width="16.1339285714286" customWidth="1"/>
-    <col min="5" max="5" width="18.1160714285714" customWidth="1"/>
+    <col min="5" max="5" width="45.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="17.7410714285714" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="23.0714285714286" customWidth="1"/>
@@ -1321,56 +1480,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:8">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1383,32 +1516,38 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A7" sqref="A7:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="74.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
+      <c r="A2" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" ht="12.8" spans="1:1">
+      <c r="A7" s="11"/>
+    </row>
+    <row r="9" ht="12.8" spans="1:1">
+      <c r="A9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1420,32 +1559,36 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="58.7767857142857" customWidth="1"/>
+    <col min="2" max="2" width="41.0714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>50</v>
-      </c>
+    </row>
+    <row r="12" ht="12.8" spans="1:1">
+      <c r="A12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1457,32 +1600,35 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
         <v>50</v>
       </c>
+      <c r="B2" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" ht="12.8" spans="1:1">
+      <c r="A18" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1494,32 +1640,38 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" ht="12.8" spans="1:1">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1531,42 +1683,62 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="80.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="24" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>55</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" ht="24" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" ht="12.8" spans="1:1">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1578,42 +1750,62 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="97.4732142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>59</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="12.8" spans="1:1">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1625,42 +1817,62 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="83.4821428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:2">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" ht="12.8" spans="1:1">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1672,42 +1884,62 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="76.9285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>69</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:2">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" ht="12.8" spans="1:1">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1719,42 +1951,62 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="73.9553571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>73</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" ht="12.8" spans="1:1">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1766,42 +2018,62 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="66.0714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>76</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>77</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:2">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" ht="12.8" spans="1:1">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1826,18 +2098,18 @@
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" s="7" customFormat="1" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" s="14" customFormat="1" spans="1:2">
+      <c r="A2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1850,42 +2122,78 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="75.8928571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>80</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>81</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:2">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:2">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:2">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="12.8" spans="1:1">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1897,42 +2205,75 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="84.6696428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:1">
+        <v>86</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:1">
+        <v>87</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:2">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:2">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:2">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" ht="12.8" spans="1:1">
+      <c r="A14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1947,24 +2288,24 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>54</v>
+      <c r="A2" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1983,24 +2324,24 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2026,17 +2367,17 @@
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2062,17 +2403,17 @@
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2103,57 +2444,57 @@
   <sheetData>
     <row r="1" ht="13.2" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" s="14" customFormat="1" spans="1:3">
+      <c r="A2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" s="14" customFormat="1" spans="1:3">
+      <c r="A3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="4" s="14" customFormat="1" spans="1:3">
+      <c r="A4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="2" s="7" customFormat="1" spans="1:3">
-      <c r="A2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" s="7" customFormat="1" spans="1:3">
-      <c r="A3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" s="7" customFormat="1" spans="1:3">
-      <c r="A4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2182,36 +2523,36 @@
   <sheetData>
     <row r="1" ht="13.2" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" s="7" customFormat="1" spans="1:5">
-      <c r="A2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" s="14" customFormat="1" spans="1:5">
+      <c r="A2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2240,30 +2581,30 @@
   <sheetData>
     <row r="1" ht="13.2" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2292,30 +2633,30 @@
   <sheetData>
     <row r="1" ht="13.2" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>47</v>
+      <c r="B2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2330,8 +2671,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -2344,30 +2685,30 @@
   <sheetData>
     <row r="1" ht="13.2" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>47</v>
+      <c r="D2" s="13" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2380,31 +2721,36 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="50.4464285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
+      <c r="A2" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" ht="12.8" spans="1:1">
+      <c r="A11" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2417,31 +2763,42 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="52.2321428571429" customWidth="1"/>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
+      <c r="A2" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" ht="12.8" spans="1:1">
+      <c r="A9" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/xavier200203/evidence.xlsx
+++ b/xavier200203/evidence.xlsx
@@ -33,13 +33,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="102">
   <si>
     <t>TeamName</t>
   </si>
@@ -329,10 +330,22 @@
     <t>171861F856A142F6F35F4E22FD963DE485CD51D8FEE81D0C0B3B37CA1A0C958A</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
+    <t>07DEB1F11A99EEFB606A78F3D25B0FE1FAC098B68BA584782C682F0889CA973E</t>
+  </si>
+  <si>
+    <t>F5CBE969587F4720D5043AACD59A3CDDCCEAE2629DC10B49F280EA71D420FF1F</t>
+  </si>
+  <si>
+    <t>44D7D05A34582F013F4E0DC44902A2BCCC109E984C40365916FE7C8FD9DC9886</t>
+  </si>
+  <si>
+    <t>F3D8789181D803EB0AAA1A405A7E002545003A7A4790B99229F77FF96C1BCF7F</t>
+  </si>
+  <si>
+    <t>78FC2D38258EC594021C8700ABCA6DB0429149BD7E95EE2521101F6CACA78A04</t>
+  </si>
+  <si>
+    <t>04923C19627F62AAD1E1F8307503043AD84F26B58E8DE8FB2407EA9E5E743BC7</t>
   </si>
 </sst>
 </file>
@@ -340,10 +353,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -363,6 +376,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -372,12 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF24292F"/>
-      <name val="Helvetica"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -418,9 +431,63 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -431,6 +498,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -440,132 +574,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -588,37 +601,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,145 +739,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,6 +792,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -797,15 +819,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -817,15 +830,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,17 +858,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -879,141 +872,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,13 +1035,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1036,7 +1050,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1445,9 +1458,9 @@
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.6160714285714" customWidth="1"/>
-    <col min="2" max="2" width="14.8839285714286" customWidth="1"/>
-    <col min="3" max="3" width="17.5089285714286" customWidth="1"/>
-    <col min="4" max="4" width="16.1339285714286" customWidth="1"/>
+    <col min="2" max="2" width="45.2321428571429" customWidth="1"/>
+    <col min="3" max="3" width="50.7321428571429" customWidth="1"/>
+    <col min="4" max="4" width="43.4464285714286" customWidth="1"/>
     <col min="5" max="5" width="45.7142857142857" customWidth="1"/>
     <col min="6" max="6" width="17.7410714285714" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
@@ -1547,7 +1560,7 @@
       <c r="A7" s="11"/>
     </row>
     <row r="9" ht="12.8" spans="1:1">
-      <c r="A9" s="10"/>
+      <c r="A9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1580,15 +1593,15 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" ht="12.8" spans="1:1">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1620,15 +1633,15 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" ht="12.8" spans="1:1">
-      <c r="A18" s="10"/>
+      <c r="A18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1660,18 +1673,18 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" ht="12.8" spans="1:1">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1706,7 +1719,7 @@
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1714,7 +1727,7 @@
       <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1722,7 +1735,7 @@
       <c r="A4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1730,15 +1743,15 @@
       <c r="A5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" ht="12.8" spans="1:1">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6"/>
+      <c r="A17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1773,7 +1786,7 @@
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1781,7 +1794,7 @@
       <c r="A3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1789,7 +1802,7 @@
       <c r="A4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1797,15 +1810,15 @@
       <c r="A5" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" ht="12.8" spans="1:1">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="6"/>
+      <c r="A16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1840,7 +1853,7 @@
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1848,7 +1861,7 @@
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1856,7 +1869,7 @@
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1864,15 +1877,15 @@
       <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" ht="12.8" spans="1:1">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1907,7 +1920,7 @@
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1915,7 +1928,7 @@
       <c r="A3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1923,7 +1936,7 @@
       <c r="A4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1931,15 +1944,15 @@
       <c r="A5" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" ht="12.8" spans="1:1">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1974,7 +1987,7 @@
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1982,7 +1995,7 @@
       <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1990,7 +2003,7 @@
       <c r="A4" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1998,15 +2011,15 @@
       <c r="A5" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" ht="12.8" spans="1:1">
-      <c r="A12" s="5"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6"/>
+      <c r="A13" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2041,7 +2054,7 @@
       <c r="A2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2049,7 +2062,7 @@
       <c r="A3" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2057,7 +2070,7 @@
       <c r="A4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2065,15 +2078,15 @@
       <c r="A5" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" ht="12.8" spans="1:1">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6"/>
+      <c r="A15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2088,12 +2101,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6428571428571" defaultRowHeight="12" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="17.8839285714286" customWidth="1"/>
+    <col min="1" max="1" width="97.9196428571429" customWidth="1"/>
+    <col min="2" max="2" width="76.7857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
@@ -2145,7 +2159,7 @@
       <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2153,7 +2167,7 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2161,7 +2175,7 @@
       <c r="A4" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2169,7 +2183,7 @@
       <c r="A5" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2177,7 +2191,7 @@
       <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2185,15 +2199,15 @@
       <c r="A7" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" ht="12.8" spans="1:1">
-      <c r="A13" s="5"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6"/>
+      <c r="A14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2228,7 +2242,7 @@
       <c r="A2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2236,7 +2250,7 @@
       <c r="A3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2244,7 +2258,7 @@
       <c r="A4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2252,7 +2266,7 @@
       <c r="A5" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2260,7 +2274,7 @@
       <c r="A6" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2268,12 +2282,12 @@
       <c r="A7" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" ht="12.8" spans="1:1">
-      <c r="A14" s="5"/>
+      <c r="A14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2357,13 +2371,16 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="82.2857142857143" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -2379,6 +2396,9 @@
       <c r="A3" s="3" t="s">
         <v>97</v>
       </c>
+    </row>
+    <row r="9" ht="12.8" spans="1:1">
+      <c r="A9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2393,13 +2413,16 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="78.2678571428571" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="13.2" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -2408,13 +2431,64 @@
     </row>
     <row r="2" ht="13.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" ht="12.8" spans="1:1">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5357142857143" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="86.0089285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.2" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" ht="12.8" spans="1:1">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2487,13 +2561,13 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2594,13 +2668,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -2646,13 +2720,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -2698,13 +2772,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -2749,7 +2823,7 @@
       </c>
     </row>
     <row r="11" ht="12.8" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2797,7 +2871,7 @@
       </c>
     </row>
     <row r="9" ht="12.8" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
     </row>
